--- a/output/ejecucion_2/results/base0/base0_ci_rf_o.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_rf_o.xlsx
@@ -25,151 +25,151 @@
     <t>_tejgtotfun_f5amb</t>
   </si>
   <si>
+    <t>dfgdevpiagfun_f5ct05sanpc</t>
+  </si>
+  <si>
+    <t>_tejgct_r08gstcr</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2opseg</t>
+  </si>
+  <si>
+    <t>bvleche_16</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r08ct05pgrcopc</t>
+  </si>
+  <si>
     <t>_tejgrb_redr</t>
   </si>
   <si>
+    <t>_tejgtotfun_f5r08opseg</t>
+  </si>
+  <si>
+    <t>_tejgge_r08ct05biser</t>
+  </si>
+  <si>
     <t>_tejgft_redr</t>
   </si>
   <si>
-    <t>_tejgtotfun_f2opseg</t>
+    <t>_tejgfun_f5ct05pgrco</t>
+  </si>
+  <si>
+    <t>_tejgct_r09gstcr</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2pgrco</t>
+  </si>
+  <si>
+    <t>tdvgkft_rdet</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f4ct06transpc</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f2amb</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct05opseg</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r18ct05sanpc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f4transpc</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagct_r18gstcp</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct06opseg</t>
+  </si>
+  <si>
+    <t>_tejgfun_f2ct05pgrco</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>piagtotfun_f5r07protspc</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f5ct06opseg</t>
+  </si>
+  <si>
+    <t>_tejgge_r09ct05biser</t>
+  </si>
+  <si>
+    <t>_dfgpimpiagkft_rdet</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct05amb</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5opsegpc</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>tejgfun_f2ct05amb</t>
   </si>
   <si>
     <t>_tejgtotfun_f5pgrco</t>
   </si>
   <si>
+    <t>_tejgfun_f1ct06pgrco</t>
+  </si>
+  <si>
+    <t>_pimgtotfun_f5opsegpc</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct05opseg</t>
+  </si>
+  <si>
+    <t>_tejgge_r09ct05biserpc</t>
+  </si>
+  <si>
+    <t>devppimfun_f2ct06agro</t>
+  </si>
+  <si>
+    <t>_tejgfun_f2ct05amb</t>
+  </si>
+  <si>
+    <t>_tejgge_r08ct05pobso</t>
+  </si>
+  <si>
+    <t>pimgfun_f1ct06prots</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagkftr18_rdet</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct05amb</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f5r07ct06protspc</t>
+  </si>
+  <si>
+    <t>_tejgct_r09gstcrpc</t>
+  </si>
+  <si>
+    <t>devppimgkft_rdet</t>
+  </si>
+  <si>
+    <t>_devppimct_r00gstcr</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct05pgrco</t>
+  </si>
+  <si>
     <t>_tejgfun_f2ct05opseg</t>
   </si>
   <si>
-    <t>_tejgfun_f5ct05pgrco</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcr</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05opseg</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05amb</t>
-  </si>
-  <si>
-    <t>tejgfun_f5ct05cydep</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r08pgrcopc</t>
-  </si>
-  <si>
-    <t>_tejgft_rdet</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r08ct05pgrcopc</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagrb_foncpc</t>
+    <t>devppimfun_f5r18ct05cydep</t>
   </si>
   <si>
     <t>dfgpimpiagkft_rdetpc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r08opseg</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>_dfgpimpiagkft_rdetpc</t>
-  </si>
-  <si>
-    <t>_tejgrb_impm</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2amb</t>
-  </si>
-  <si>
-    <t>_tejgct_r08gstcr</t>
-  </si>
-  <si>
-    <t>_tejgge_r09ct05biser</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5viv</t>
-  </si>
-  <si>
-    <t>devppimrb_canr</t>
-  </si>
-  <si>
-    <t>tejgge_r07ct05otgstpc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05amb</t>
-  </si>
-  <si>
-    <t>_dfgpimpiagkft_rdet</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r18ct05cydep</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5r07ct05turipc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct05opseg</t>
-  </si>
-  <si>
-    <t>compu_muni_5</t>
-  </si>
-  <si>
-    <t>_tejgct_r18gstcr</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5r08ct05opseg</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcrpc</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f5r08prsopc</t>
-  </si>
-  <si>
-    <t>dfgpimpiafun_f5r08ct05prsopc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5ct05sanpc</t>
-  </si>
-  <si>
-    <t>dfgpimpiarb_dotrpc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5r18ct05transpc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f5r07ct05sanpc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2cydep</t>
-  </si>
-  <si>
-    <t>tejgfun_f5r18ct05cydep</t>
-  </si>
-  <si>
-    <t>mod_66</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f5cydep</t>
-  </si>
-  <si>
-    <t>_pimgfun_f5ct06opsegpc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2sanpc</t>
-  </si>
-  <si>
-    <t>_pimgfun_f5r18ct06opseg</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagct_r07gstcppc</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.008294499147582363</v>
+        <v>0.005504846381997101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.005555349327108176</v>
+        <v>0.004731700195798244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.005197971103931717</v>
+        <v>0.002959397166986928</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.004631901131177011</v>
+        <v>0.002675886849323625</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.004359451474640226</v>
+        <v>0.002442280975516227</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.004314409336429468</v>
+        <v>0.002404761835157466</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.004309799015986901</v>
+        <v>0.002314993921975503</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.003440191841125527</v>
+        <v>0.002188365841349146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.003438197593482971</v>
+        <v>0.002147029025418947</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.003281753384677301</v>
+        <v>0.002057015610393463</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.003049476628945497</v>
+        <v>0.00203007639476122</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.002947535629293549</v>
+        <v>0.0019213393270223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.002901126122993808</v>
+        <v>0.001918691447780595</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.002744023075526658</v>
+        <v>0.001914663816750941</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.002619925853379454</v>
+        <v>0.001911906000148012</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.002266667800041396</v>
+        <v>0.00187705051137771</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.00214950521539607</v>
+        <v>0.001809601496711791</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.002061486773330223</v>
+        <v>0.001806101396983417</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.002051299818898275</v>
+        <v>0.001788618579459514</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.001947266229423702</v>
+        <v>0.001695747656399214</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.001805148263907462</v>
+        <v>0.001612650621782239</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.001801903749811517</v>
+        <v>0.001594955783620757</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.00179384250351488</v>
+        <v>0.001531251095061599</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.001719903161490575</v>
+        <v>0.00149962816255714</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.001666523777516743</v>
+        <v>0.001451930471402063</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.001650757218615928</v>
+        <v>0.001432017498283682</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.001630302707757763</v>
+        <v>0.001429496717933424</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.001598828668432845</v>
+        <v>0.001418861413727493</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.001589575024756013</v>
+        <v>0.001407321363397562</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001477453173490379</v>
+        <v>0.001398633022068218</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.001428194056108506</v>
+        <v>0.001397021039243188</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001402661761706984</v>
+        <v>0.001394035484187648</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.001346395442462392</v>
+        <v>0.001393500231854979</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.001334869934117864</v>
+        <v>0.00139346022474405</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.001327555086852193</v>
+        <v>0.001343742868896097</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.001303991562018393</v>
+        <v>0.001329173390418222</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.001276402699773184</v>
+        <v>0.001310439158062251</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.001248401900691419</v>
+        <v>0.001300114910866389</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.001245145175006717</v>
+        <v>0.001297698782067145</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.001242945146193304</v>
+        <v>0.001290050175474327</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.001221304025291815</v>
+        <v>0.001270474428132654</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.001198962201131339</v>
+        <v>0.001231091028748842</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.001195604568076344</v>
+        <v>0.001230924628802432</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.001192813343792223</v>
+        <v>0.00121609936968837</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.001175035439493498</v>
+        <v>0.001197019500033859</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.001171838634846692</v>
+        <v>0.001160932097414928</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.001153345364398251</v>
+        <v>0.001158218487768762</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.001137847185348831</v>
+        <v>0.001141764598998171</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.001120438323675941</v>
+        <v>0.001107854731024029</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.001108161424524244</v>
+        <v>0.001099558488742017</v>
       </c>
     </row>
   </sheetData>
